--- a/docs/Classifcation Reports/DecisionTreeClassifier()_2.xlsx
+++ b/docs/Classifcation Reports/DecisionTreeClassifier()_2.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7640167364016737</v>
+        <v>0.7501982553528945</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7959895379250218</v>
+        <v>0.832014072119613</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7796754910333049</v>
+        <v>0.7889908256880733</v>
       </c>
       <c r="E2" t="n">
-        <v>1147</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8440944881889764</v>
+        <v>0.8539325842696629</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8208269525267994</v>
+        <v>0.8299531981279251</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8322981366459627</v>
+        <v>0.8417721518987341</v>
       </c>
       <c r="E3" t="n">
-        <v>653</v>
+        <v>641</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7524999999999999</v>
+        <v>0.7671957671957672</v>
       </c>
       <c r="C4" t="n">
-        <v>0.768837803320562</v>
+        <v>0.7196029776674938</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7605811749842071</v>
+        <v>0.7426376440460947</v>
       </c>
       <c r="E4" t="n">
-        <v>783</v>
+        <v>806</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5258064516129032</v>
+        <v>0.5266666666666666</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4565826330532213</v>
+        <v>0.4438202247191011</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4887556221889055</v>
+        <v>0.4817073170731707</v>
       </c>
       <c r="E5" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.753061224489796</v>
+        <v>0.7537414965986394</v>
       </c>
       <c r="C6" t="n">
-        <v>0.753061224489796</v>
+        <v>0.7537414965986394</v>
       </c>
       <c r="D6" t="n">
-        <v>0.753061224489796</v>
+        <v>0.7537414965986394</v>
       </c>
       <c r="E6" t="n">
-        <v>0.753061224489796</v>
+        <v>0.7537414965986394</v>
       </c>
     </row>
     <row r="7">
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7216044190508883</v>
+        <v>0.7244983183712477</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7105592317064011</v>
+        <v>0.7063476181585333</v>
       </c>
       <c r="D7" t="n">
-        <v>0.715327606213095</v>
+        <v>0.7137769846765181</v>
       </c>
       <c r="E7" t="n">
         <v>2940</v>
@@ -576,13 +576,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7498099662129005</v>
+        <v>0.7504079335191214</v>
       </c>
       <c r="C8" t="n">
-        <v>0.753061224489796</v>
+        <v>0.7537414965986394</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7509521389724788</v>
+        <v>0.7505824027733432</v>
       </c>
       <c r="E8" t="n">
         <v>2940</v>
